--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 ED.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 ED.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATTR-651</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>2.78%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>CPSY-673</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>17.65%</t>
   </si>
   <si>
+    <t>2.86%</t>
+  </si>
+  <si>
     <t>BERGERON C</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>6.82%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>EDAD-609</t>
   </si>
   <si>
@@ -340,6 +352,9 @@
     <t>GOLDSBY D</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>JAMES M</t>
   </si>
   <si>
@@ -469,6 +484,9 @@
     <t>7.69%</t>
   </si>
   <si>
+    <t>1.52%</t>
+  </si>
+  <si>
     <t>EHRD-408</t>
   </si>
   <si>
@@ -496,18 +514,21 @@
     <t>34.78%</t>
   </si>
   <si>
-    <t>4.35%</t>
-  </si>
-  <si>
     <t>8.70%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>EHRD-475</t>
   </si>
   <si>
     <t>60.00%</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>EHRD-481</t>
   </si>
   <si>
@@ -553,6 +574,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>EHRD-618</t>
   </si>
   <si>
@@ -625,9 +649,6 @@
     <t>48.57%</t>
   </si>
   <si>
-    <t>2.86%</t>
-  </si>
-  <si>
     <t>EPSY-459</t>
   </si>
   <si>
@@ -643,9 +664,6 @@
     <t>43.24%</t>
   </si>
   <si>
-    <t>2.70%</t>
-  </si>
-  <si>
     <t>EPSY-606</t>
   </si>
   <si>
@@ -673,6 +691,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>HLTH-210</t>
   </si>
   <si>
@@ -733,12 +754,6 @@
     <t>77.78%</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>1.39%</t>
   </si>
   <si>
@@ -763,6 +778,9 @@
     <t>2.45%</t>
   </si>
   <si>
+    <t>1.81%</t>
+  </si>
+  <si>
     <t>HLTH-240</t>
   </si>
   <si>
@@ -781,6 +799,9 @@
     <t>7.62%</t>
   </si>
   <si>
+    <t>0.94%</t>
+  </si>
+  <si>
     <t>HLTH-335</t>
   </si>
   <si>
@@ -850,6 +871,9 @@
     <t>4.26%</t>
   </si>
   <si>
+    <t>2.08%</t>
+  </si>
+  <si>
     <t>HLTH-410</t>
   </si>
   <si>
@@ -868,6 +892,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>HLTH-429</t>
   </si>
   <si>
@@ -916,6 +943,9 @@
     <t>35.29%</t>
   </si>
   <si>
+    <t>10.53%</t>
+  </si>
+  <si>
     <t>PRIMUS M</t>
   </si>
   <si>
@@ -961,6 +991,9 @@
     <t>4.65%</t>
   </si>
   <si>
+    <t>4.44%</t>
+  </si>
+  <si>
     <t>INST-463</t>
   </si>
   <si>
@@ -970,6 +1003,9 @@
     <t>91.67%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>KINE-120</t>
   </si>
   <si>
@@ -1057,6 +1093,9 @@
     <t>3.39%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>THOMAS F</t>
   </si>
   <si>
@@ -1345,9 +1384,6 @@
     <t>28.33%</t>
   </si>
   <si>
-    <t>1.67%</t>
-  </si>
-  <si>
     <t>SPED-602</t>
   </si>
   <si>
@@ -1432,6 +1468,9 @@
     <t>5.48%</t>
   </si>
   <si>
+    <t>1.35%</t>
+  </si>
+  <si>
     <t>SPMT-319</t>
   </si>
   <si>
@@ -1453,6 +1492,9 @@
     <t>1.22%</t>
   </si>
   <si>
+    <t>5.75%</t>
+  </si>
+  <si>
     <t>SPMT-336</t>
   </si>
   <si>
@@ -1471,7 +1513,7 @@
     <t>2.83%</t>
   </si>
   <si>
-    <t>1.89%</t>
+    <t>0.93%</t>
   </si>
   <si>
     <t>SPMT-337</t>
@@ -1492,6 +1534,9 @@
     <t>0.76%</t>
   </si>
   <si>
+    <t>0.38%</t>
+  </si>
+  <si>
     <t>SPMT-340</t>
   </si>
   <si>
@@ -1613,9 +1658,6 @@
   </si>
   <si>
     <t>34.85%</t>
-  </si>
-  <si>
-    <t>1.52%</t>
   </si>
   <si>
     <t>TEED-602</t>
@@ -1683,12 +1725,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1982,15 +2023,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H473"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2015,5103 +2056,5679 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>3.071</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>3.467</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>3.5</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>3.333</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" t="n">
         <v>3.629</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="n">
         <v>3.824</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" t="n">
         <v>3.932</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
         <v>3.2</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C41" t="n">
         <v>3.941</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" t="n">
         <v>3.909</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C54" t="n">
         <v>3.7465</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C61" t="n">
         <v>3.815</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C65" t="n">
         <v>3.625</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C68" t="n">
         <v>3.714</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C71" t="n">
         <v>3.882</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C75" t="n">
         <v>3.938</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C78" t="n">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C84" t="n">
         <v>3.954</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C89" t="n">
         <v>3.75</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C95" t="n">
         <v>3.909</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C98" t="n">
         <v>3.864</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C100" t="n">
         <v>3.704</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C103" t="n">
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C107" t="n">
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C114" t="n">
         <v>3.636</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C117" t="n">
         <v>3.885</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F117" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C120" t="n">
         <v>3.5</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H120" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C123" t="n">
         <v>3.333</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E123" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I123" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C126" t="n">
         <v>3.5</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E126" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C129" t="n">
         <v>3.333</v>
       </c>
       <c r="D129" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G129" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C132" t="n">
         <v>3.385</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C135" t="n">
         <v>2.979</v>
       </c>
       <c r="D135" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E135" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F135" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C138" t="n">
         <v>3.769</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E138" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C139" t="n">
         <v>2.692</v>
       </c>
       <c r="D139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" t="s">
+        <v>162</v>
+      </c>
+      <c r="F139" t="s">
+        <v>150</v>
+      </c>
+      <c r="G139" t="s">
         <v>155</v>
       </c>
-      <c r="E139" t="s">
-        <v>156</v>
-      </c>
-      <c r="F139" t="s">
-        <v>145</v>
-      </c>
-      <c r="G139" t="s">
-        <v>150</v>
-      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C142" t="n">
         <v>3.217</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E142" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C145" t="n">
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E145" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C148" t="n">
         <v>3.381</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E148" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C151" t="n">
         <v>3.792</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E151" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C154" t="n">
         <v>2.48</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F154" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I154" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C157" t="n">
         <v>2.436</v>
       </c>
       <c r="D157" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E157" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F157" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C160" t="n">
         <v>3.778</v>
       </c>
       <c r="D160" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C163" t="n">
         <v>3.912</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E163" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H163" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C166" t="n">
         <v>3.976</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E166" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C169" t="n">
         <v>3.8615</v>
       </c>
       <c r="D169" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E169" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H169" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C172" t="n">
         <v>2.9</v>
       </c>
       <c r="D172" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C175" t="n">
         <v>3.176</v>
       </c>
       <c r="D175" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F175" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G175" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H175" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C176" t="n">
         <v>2.933</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F176" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H176" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C179" t="n">
         <v>3.875</v>
       </c>
       <c r="D179" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C182" t="n">
         <v>2.857</v>
       </c>
       <c r="D182" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F182" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="H182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I182" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C188" t="n">
         <v>3.432</v>
       </c>
       <c r="D188" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F188" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="H188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C197" t="n">
         <v>3.3</v>
       </c>
       <c r="D197" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C200" t="n">
         <v>3.441</v>
       </c>
       <c r="D200" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E200" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="I200" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C203" t="n">
         <v>3.615</v>
       </c>
       <c r="D203" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E203" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H203" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C206" t="n">
         <v>2.889</v>
       </c>
       <c r="D206" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E206" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F206" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H206" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I206" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C209" t="n">
         <v>3.938</v>
       </c>
       <c r="D209" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E209" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C210" t="n">
         <v>3.793</v>
       </c>
       <c r="D210" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E210" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H210" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C213" t="n">
         <v>3.33</v>
       </c>
       <c r="D213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E213" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F213" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I213" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C216" t="n">
         <v>3.653</v>
       </c>
       <c r="D216" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E216" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F216" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="G216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H216" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C219" t="n">
         <v>3.503</v>
       </c>
       <c r="D219" t="s">
+        <v>249</v>
+      </c>
+      <c r="E219" t="s">
+        <v>250</v>
+      </c>
+      <c r="F219" t="s">
+        <v>251</v>
+      </c>
+      <c r="G219" t="s">
+        <v>252</v>
+      </c>
+      <c r="H219" t="s">
+        <v>253</v>
+      </c>
+      <c r="I219" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="B222" t="s">
         <v>244</v>
-      </c>
-      <c r="E219" t="s">
-        <v>245</v>
-      </c>
-      <c r="F219" t="s">
-        <v>246</v>
-      </c>
-      <c r="G219" t="s">
-        <v>247</v>
-      </c>
-      <c r="H219" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>237</v>
       </c>
       <c r="C222" t="n">
         <v>3.667</v>
       </c>
       <c r="D222" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E222" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F222" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H222" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I222" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C225" t="n">
         <v>3.6865</v>
       </c>
       <c r="D225" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E225" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F225" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G225" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H225" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I225" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C228" t="n">
         <v>3.329</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E228" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F228" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H228" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C231" t="n">
         <v>3.1955</v>
       </c>
       <c r="D231" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E231" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F231" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G231" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H231" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C234" t="n">
         <v>3.362</v>
       </c>
       <c r="D234" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E234" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F234" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G234" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H234" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I234" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C237" t="n">
         <v>3.6555</v>
       </c>
       <c r="D237" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E237" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F237" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G237" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H237" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>279</v>
+      </c>
+      <c r="I237" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C240" t="n">
         <v>3.117</v>
       </c>
       <c r="D240" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E240" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F240" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G240" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H240" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I240" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C243" t="n">
         <v>3.192</v>
       </c>
       <c r="D243" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E243" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F243" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G243" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H243" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I243" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C246" t="n">
         <v>3.7885</v>
       </c>
       <c r="D246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E246" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F246" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H246" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I246" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C249" t="n">
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H249" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C252" t="n">
         <v>3.85</v>
       </c>
       <c r="D252" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E252" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G252" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H252" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I252" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C255" t="n">
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E255" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G255" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H255" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C258" t="n">
         <v>2.8</v>
       </c>
       <c r="D258" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E258" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F258" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G258" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="B261" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>285</v>
       </c>
       <c r="C261" t="n">
         <v>4</v>
       </c>
       <c r="D261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G261" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H261" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C264" t="n">
         <v>3.7</v>
       </c>
       <c r="D264" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E264" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H264" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="A266" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C267" t="n">
         <v>2.529</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E267" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F267" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G267" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I267" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C268" t="n">
         <v>2.864</v>
       </c>
       <c r="D268" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E268" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F268" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G268" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H268" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I268" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C269" t="n">
         <v>2.294</v>
       </c>
       <c r="D269" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E269" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F269" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G269" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H269" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C272" t="n">
         <v>3.214</v>
       </c>
       <c r="D272" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E272" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F272" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G272" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I272" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C273" t="n">
         <v>3.615</v>
       </c>
       <c r="D273" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E273" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G273" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C276" t="n">
         <v>3.5595</v>
       </c>
       <c r="D276" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E276" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F276" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I276" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C279" t="n">
         <v>3.909</v>
       </c>
       <c r="D279" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="E279" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="F279" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="G279" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H279" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I279" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C282" t="n">
         <v>3.933</v>
       </c>
       <c r="D282" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E282" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G282" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C283" t="n">
         <v>3.657</v>
       </c>
       <c r="D283" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E283" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F283" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G283" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H283" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I283" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C284" t="n">
         <v>3.524</v>
       </c>
       <c r="D284" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E284" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F284" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G284" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H284" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C285" t="n">
         <v>3.1365</v>
       </c>
       <c r="D285" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E285" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F285" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G285" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H285" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C288" t="n">
         <v>3.438</v>
       </c>
       <c r="D288" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E288" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C289" t="n">
         <v>3.152</v>
       </c>
       <c r="D289" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E289" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F289" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H289" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C290" t="n">
         <v>3.75</v>
       </c>
       <c r="D290" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E290" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F290" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="G290" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H290" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I290" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C291" t="n">
         <v>3.8</v>
       </c>
       <c r="D291" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E291" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C292" t="n">
         <v>3.6027</v>
       </c>
       <c r="D292" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E292" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F292" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H292" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C293" t="n">
         <v>3.483</v>
       </c>
       <c r="D293" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E293" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F293" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G293" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="H293" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I293" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C294" t="n">
         <v>3.9855</v>
       </c>
       <c r="D294" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="E294" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H294" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C295" t="n">
         <v>3.5</v>
       </c>
       <c r="D295" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E295" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F295" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H295" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>367</v>
+      </c>
+      <c r="I295" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C296" t="n">
         <v>3.875</v>
       </c>
       <c r="D296" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E296" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H296" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I296" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C297" t="n">
         <v>3.643</v>
       </c>
       <c r="D297" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E297" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I297" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C298" t="n">
         <v>3.379</v>
       </c>
       <c r="D298" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="E298" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F298" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G298" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H298" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>377</v>
+      </c>
+      <c r="I298" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C299" t="n">
         <v>3.9415</v>
       </c>
       <c r="D299" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="E299" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H299" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I299" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C300" t="n">
         <v>3.655</v>
       </c>
       <c r="D300" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E300" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F300" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H300" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I300" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C301" t="n">
         <v>3.875</v>
       </c>
       <c r="D301" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E301" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H301" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C304" t="n">
         <v>3.2</v>
       </c>
       <c r="D304" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E304" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F304" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G304" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H304" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I304" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="B305" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C305" t="n">
         <v>4</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E305" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F305" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G305" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H305" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I305" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G306" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H306" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I306" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C307" t="n">
         <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G307" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C308" t="n">
         <v>3.667</v>
       </c>
       <c r="D308" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E308" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F308" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G308" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H308" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C309" t="n">
         <v>3.8</v>
       </c>
       <c r="D309" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E309" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G309" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H309" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I309" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C310" t="n">
         <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G310" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H310" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C311" t="n">
         <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G311" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H311" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I311" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C312" t="n">
         <v>3.857</v>
       </c>
       <c r="D312" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E312" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="F312" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G312" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H312" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C313" t="n">
         <v>4</v>
       </c>
       <c r="D313" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E313" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F313" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G313" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H313" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I313" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C316" t="n">
         <v>2.4765</v>
       </c>
       <c r="D316" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E316" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F316" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G316" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H316" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I316" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C319" t="n">
         <v>3.4855</v>
       </c>
       <c r="D319" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E319" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F319" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G319" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H319" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I319" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C322" t="n">
         <v>3.583</v>
       </c>
       <c r="D322" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E322" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F322" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G322" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H322" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C325" t="n">
         <v>2.3895</v>
       </c>
       <c r="D325" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E325" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F325" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G325" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H325" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I325" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="B328" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C328" t="n">
         <v>2.784</v>
       </c>
       <c r="D328" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E328" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F328" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G328" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="H328" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I328" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C331" t="n">
         <v>3.071</v>
       </c>
       <c r="D331" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E331" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F331" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G331" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H331" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C334" t="n">
         <v>2.833</v>
       </c>
       <c r="D334" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E334" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F334" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G334" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H334" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C335" t="n">
         <v>3.1055</v>
       </c>
       <c r="D335" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="E335" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="F335" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G335" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="H335" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C338" t="n">
         <v>2.812</v>
       </c>
       <c r="D338" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E338" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F338" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H338" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C341" t="n">
         <v>3.886</v>
       </c>
       <c r="D341" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="E341" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H341" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C344" t="n">
         <v>3.4</v>
       </c>
       <c r="D344" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E344" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H344" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C347" t="n">
         <v>3.25</v>
       </c>
       <c r="D347" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E347" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G347" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H347" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C350" t="n">
         <v>3.8545</v>
       </c>
       <c r="D350" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E350" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G350" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C353" t="n">
         <v>3.857</v>
       </c>
       <c r="D353" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E353" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G353" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H353" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I353" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C356" t="n">
         <v>3.812</v>
       </c>
       <c r="D356" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E356" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G356" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H356" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I356" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="B357" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C357" t="n">
         <v>3.556</v>
       </c>
       <c r="D357" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E357" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F357" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G357" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H357" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="B360" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C360" t="n">
         <v>3.35</v>
       </c>
       <c r="D360" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="E360" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F360" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G360" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="H360" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I360" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="B363" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C363" t="n">
         <v>3.808</v>
       </c>
       <c r="D363" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="E363" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F363" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G363" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H363" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="B366" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C366" t="n">
         <v>3.923</v>
       </c>
       <c r="D366" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E366" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H366" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I366" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="B369" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C369" t="n">
         <v>3.72</v>
       </c>
       <c r="D369" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="E369" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G369" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H369" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I369" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="B372" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C372" t="n">
         <v>4</v>
       </c>
       <c r="D372" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H372" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
       <c r="B375" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C375" t="n">
         <v>3.692</v>
       </c>
       <c r="D375" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E375" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F375" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G375" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H375" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
       <c r="B378" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C378" t="n">
         <v>4</v>
       </c>
       <c r="D378" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E378" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F378" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G378" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H378" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="B381" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C381" t="n">
         <v>3.8</v>
       </c>
       <c r="D381" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E381" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G381" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H381" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I381" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
       <c r="B384" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C384" t="n">
         <v>3.6</v>
       </c>
       <c r="D384" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E384" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F384" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G384" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
       <c r="H384" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>359</v>
+      </c>
+      <c r="I384" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
       <c r="B387" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C387" t="n">
         <v>4</v>
       </c>
       <c r="D387" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H387" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I387" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
       <c r="B390" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C390" t="n">
         <v>3.624</v>
       </c>
       <c r="D390" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E390" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F390" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G390" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H390" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I390" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
       <c r="B393" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C393" t="n">
         <v>4</v>
       </c>
       <c r="D393" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H393" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
       <c r="B396" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C396" t="n">
         <v>3.902</v>
       </c>
       <c r="D396" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E396" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F396" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G396" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H396" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>468</v>
+      </c>
+      <c r="I396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
       <c r="B399" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C399" t="n">
         <v>3.688</v>
       </c>
       <c r="D399" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E399" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F399" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G399" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H399" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
       <c r="A401" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="B402" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C402" t="n">
         <v>3.6867</v>
       </c>
       <c r="D402" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E402" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="F402" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G402" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H402" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
       <c r="A404" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
       <c r="B405" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C405" t="n">
         <v>2.536</v>
       </c>
       <c r="D405" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="E405" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F405" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G405" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H405" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>483</v>
+      </c>
+      <c r="I405" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="A407" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="B408" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C408" t="n">
         <v>2.936</v>
       </c>
       <c r="D408" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E408" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F408" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G408" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H408" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
+        <v>491</v>
+      </c>
+      <c r="I408" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
       <c r="A410" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
       <c r="B411" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C411" t="n">
         <v>2.9127</v>
       </c>
       <c r="D411" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="E411" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F411" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G411" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="H411" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
+        <v>292</v>
+      </c>
+      <c r="I411" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="A413" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="B414" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C414" t="n">
         <v>3.489</v>
       </c>
       <c r="D414" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="E414" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="F414" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G414" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="H414" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>505</v>
+      </c>
+      <c r="I414" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="A416" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
       <c r="B417" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C417" t="n">
         <v>3.6755</v>
       </c>
       <c r="D417" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="E417" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F417" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G417" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H417" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="A419" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
       <c r="B420" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C420" t="n">
         <v>3.542</v>
       </c>
       <c r="D420" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E420" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F420" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G420" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H420" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I420" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
       <c r="A422" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
       <c r="B423" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="C423" t="n">
         <v>3.667</v>
       </c>
       <c r="D423" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E423" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F423" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G423" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H423" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
       <c r="A425" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
       <c r="B426" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C426" t="n">
         <v>3.333</v>
       </c>
       <c r="D426" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E426" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F426" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G426" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H426" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
       <c r="A428" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
       <c r="B429" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C429" t="n">
         <v>3.2335</v>
       </c>
       <c r="D429" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="E429" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F429" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G429" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H429" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I429" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
       <c r="B430" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C430" t="n">
         <v>2.905</v>
       </c>
       <c r="D430" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="E430" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="F430" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="G430" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H430" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I430" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
       <c r="B431" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C431" t="n">
         <v>3.698</v>
       </c>
       <c r="D431" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="E431" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="F431" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G431" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H431" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I431" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
       <c r="B432" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C432" t="n">
         <v>3.917</v>
       </c>
       <c r="D432" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="E432" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F432" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G432" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H432" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I432" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
       <c r="A434" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
       <c r="B435" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C435" t="n">
         <v>3.909</v>
       </c>
       <c r="D435" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="E435" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F435" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G435" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H435" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I435" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
       <c r="B438" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C438" t="n">
         <v>3.462</v>
       </c>
       <c r="D438" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="E438" t="s">
+        <v>161</v>
+      </c>
+      <c r="F438" t="s">
+        <v>12</v>
+      </c>
+      <c r="G438" t="s">
+        <v>12</v>
+      </c>
+      <c r="H438" t="s">
         <v>155</v>
       </c>
-      <c r="F438" t="s">
-        <v>11</v>
-      </c>
-      <c r="G438" t="s">
-        <v>11</v>
-      </c>
-      <c r="H438" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8">
+      <c r="I438" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
       <c r="B441" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C441" t="n">
         <v>2.857</v>
       </c>
       <c r="D441" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E441" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F441" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G441" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I441" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="B444" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
-      <c r="B444" t="s">
-        <v>508</v>
       </c>
       <c r="C444" t="n">
         <v>3.333</v>
       </c>
       <c r="D444" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E444" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F444" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G444" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H444" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I444" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
       <c r="B447" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C447" t="n">
         <v>3</v>
       </c>
       <c r="D447" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E447" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F447" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G447" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="H447" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
+        <v>370</v>
+      </c>
+      <c r="I447" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="B450" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C450" t="n">
         <v>3.2</v>
       </c>
       <c r="D450" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H450" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I450" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
       <c r="A452" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
       <c r="B453" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="C453" t="n">
         <v>3.667</v>
       </c>
       <c r="D453" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E453" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F453" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G453" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H453" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I453" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
       <c r="B456" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C456" t="n">
         <v>4</v>
       </c>
       <c r="D456" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H456" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
       <c r="B459" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="C459" t="n">
         <v>3.857</v>
       </c>
       <c r="D459" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="E459" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H459" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I459" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
       <c r="A461" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
       <c r="B462" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C462" t="n">
         <v>3.409</v>
       </c>
       <c r="D462" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="E462" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="F462" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G462" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H462" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I462" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
       <c r="A464" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
       <c r="B465" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C465" t="n">
         <v>3.977</v>
       </c>
       <c r="D465" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="E465" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F465" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G465" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H465" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I465" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
       <c r="A467" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
       <c r="B468" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="C468" t="n">
         <v>3.956</v>
       </c>
       <c r="D468" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="E468" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G468" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H468" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I468" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
       <c r="B469" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C469" t="n">
         <v>3.7</v>
       </c>
       <c r="D469" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E469" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F469" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G469" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H469" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I469" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="B470" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C470" t="n">
         <v>3.9</v>
       </c>
       <c r="D470" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E470" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F470" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G470" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H470" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I470" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="A472" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="B473" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C473" t="n">
         <v>3.52</v>
       </c>
       <c r="D473" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="E473" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F473" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="G473" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H473" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="I473" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
